--- a/量化/广发基金/牛熊市分类/报告以及原始数据/bull_bear_data.xlsx
+++ b/量化/广发基金/牛熊市分类/报告以及原始数据/bull_bear_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="680" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="6180" yWindow="700" windowWidth="22320" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K30" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,6 +786,7 @@
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
     <col min="13" max="13" width="18.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
@@ -863,7 +867,7 @@
       <c r="J2" s="1">
         <v>2.68827238243005E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>2</v>
       </c>
       <c r="L2">
@@ -910,8 +914,8 @@
       <c r="J3" s="1">
         <v>2.68827238243005E-2</v>
       </c>
-      <c r="K3">
-        <v>2</v>
+      <c r="K3" s="3">
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1053.01</v>
@@ -957,8 +961,8 @@
       <c r="J4" s="1">
         <v>2.68827238243005E-2</v>
       </c>
-      <c r="K4">
-        <v>2</v>
+      <c r="K4" s="3">
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1061.088</v>
@@ -1004,7 +1008,7 @@
       <c r="J5" s="1">
         <v>6.6645195628085199E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>2</v>
       </c>
       <c r="L5">
@@ -1051,7 +1055,7 @@
       <c r="J6" s="1">
         <v>6.6645195628085199E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>2</v>
       </c>
       <c r="L6">
@@ -1098,8 +1102,8 @@
       <c r="J7" s="1">
         <v>6.6645195628085199E-2</v>
       </c>
-      <c r="K7">
-        <v>2</v>
+      <c r="K7" s="3">
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1393.963</v>
@@ -1145,7 +1149,7 @@
       <c r="J8" s="1">
         <v>0.106379798024406</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
       <c r="L8">
@@ -1192,7 +1196,7 @@
       <c r="J9" s="1">
         <v>0.106379798024406</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
       <c r="L9">
@@ -1239,8 +1243,8 @@
       <c r="J10" s="1">
         <v>0.106379798024406</v>
       </c>
-      <c r="K10">
-        <v>2</v>
+      <c r="K10" s="3">
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1403.2650000000001</v>
@@ -1286,8 +1290,8 @@
       <c r="J11" s="1">
         <v>0.13768599747961199</v>
       </c>
-      <c r="K11">
-        <v>2</v>
+      <c r="K11" s="3">
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1464.473</v>
@@ -1333,7 +1337,7 @@
       <c r="J12" s="1">
         <v>0.13768599747961199</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>2</v>
       </c>
       <c r="L12">
@@ -1380,7 +1384,7 @@
       <c r="J13" s="1">
         <v>0.13768599747961199</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>2</v>
       </c>
       <c r="L13">
@@ -1427,7 +1431,7 @@
       <c r="J14" s="1">
         <v>4.7125937368404203E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>2</v>
       </c>
       <c r="L14">
@@ -1474,7 +1478,7 @@
       <c r="J15" s="1">
         <v>4.7125937368404203E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>2</v>
       </c>
       <c r="L15">
@@ -1521,7 +1525,7 @@
       <c r="J16" s="1">
         <v>4.7125937368404203E-2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>2</v>
       </c>
       <c r="L16">
@@ -1568,7 +1572,7 @@
       <c r="J17" s="1">
         <v>9.7505702326600996E-2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17">
@@ -1615,7 +1619,7 @@
       <c r="J18" s="1">
         <v>9.7505702326600996E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>2</v>
       </c>
       <c r="L18">
@@ -1662,8 +1666,8 @@
       <c r="J19" s="1">
         <v>9.7505702326600996E-2</v>
       </c>
-      <c r="K19">
-        <v>2</v>
+      <c r="K19" s="3">
+        <v>1</v>
       </c>
       <c r="L19">
         <v>3764.078</v>
@@ -1709,7 +1713,7 @@
       <c r="J20" s="1">
         <v>0.13505082034441801</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>2</v>
       </c>
       <c r="L20">
@@ -1756,7 +1760,7 @@
       <c r="J21" s="1">
         <v>0.13505082034441801</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>2</v>
       </c>
       <c r="L21">
@@ -1803,7 +1807,7 @@
       <c r="J22" s="1">
         <v>0.13505082034441801</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>2</v>
       </c>
       <c r="L22">
@@ -1850,7 +1854,7 @@
       <c r="J23" s="1">
         <v>0.163864442991078</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23">
@@ -1897,8 +1901,8 @@
       <c r="J24" s="1">
         <v>0.163864442991078</v>
       </c>
-      <c r="K24">
-        <v>1</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24">
         <v>4737.4080000000004</v>
@@ -1944,7 +1948,7 @@
       <c r="J25" s="1">
         <v>0.163864442991078</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25">
@@ -1991,8 +1995,8 @@
       <c r="J26" s="1">
         <v>3.7426784842745801E-2</v>
       </c>
-      <c r="K26">
-        <v>1</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26">
         <v>4620.4009999999998</v>
@@ -2038,7 +2042,7 @@
       <c r="J27" s="1">
         <v>3.7426784842745801E-2</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27">
@@ -2085,7 +2089,7 @@
       <c r="J28" s="1">
         <v>3.7426784842745801E-2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28">
@@ -2132,7 +2136,7 @@
       <c r="J29" s="1">
         <v>7.7352931613542897E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29">
@@ -2179,7 +2183,7 @@
       <c r="J30" s="1">
         <v>7.7352931613542897E-2</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30">
@@ -2226,7 +2230,7 @@
       <c r="J31" s="1">
         <v>7.7352931613542897E-2</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31">
@@ -2273,7 +2277,7 @@
       <c r="J32" s="1">
         <v>0.103432091866237</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32">
@@ -2320,7 +2324,7 @@
       <c r="J33" s="1">
         <v>0.103432091866237</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33">
@@ -2367,7 +2371,7 @@
       <c r="J34" s="1">
         <v>0.103432091866237</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34">
@@ -2414,7 +2418,7 @@
       <c r="J35" s="1">
         <v>9.8372680518284503E-2</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35">
@@ -2461,8 +2465,8 @@
       <c r="J36" s="1">
         <v>9.8372680518284503E-2</v>
       </c>
-      <c r="K36" s="1">
-        <v>1</v>
+      <c r="K36" s="3">
+        <v>2</v>
       </c>
       <c r="L36">
         <v>1829.924</v>
@@ -2508,8 +2512,8 @@
       <c r="J37" s="1">
         <v>9.8372680518284503E-2</v>
       </c>
-      <c r="K37">
-        <v>2</v>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1817.722</v>
@@ -2555,7 +2559,7 @@
       <c r="J38" s="1">
         <v>2.6289880674696699E-2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>2</v>
       </c>
       <c r="L38">
@@ -2602,7 +2606,7 @@
       <c r="J39" s="1">
         <v>2.6289880674696699E-2</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>2</v>
       </c>
       <c r="L39">
@@ -2649,7 +2653,7 @@
       <c r="J40" s="1">
         <v>2.6289880674696699E-2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>2</v>
       </c>
       <c r="L40">
@@ -2696,7 +2700,7 @@
       <c r="J41" s="1">
         <v>6.7651497360700405E-2</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>2</v>
       </c>
       <c r="L41">
@@ -2743,7 +2747,7 @@
       <c r="J42" s="1">
         <v>6.7651497360700405E-2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>2</v>
       </c>
       <c r="L42">
@@ -2790,7 +2794,7 @@
       <c r="J43" s="1">
         <v>6.7651497360700405E-2</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>2</v>
       </c>
       <c r="L43">
@@ -2837,8 +2841,8 @@
       <c r="J44" s="1">
         <v>0.104941645201252</v>
       </c>
-      <c r="K44">
-        <v>0</v>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>3734.6219999999998</v>
@@ -2884,7 +2888,7 @@
       <c r="J45" s="1">
         <v>0.104941645201252</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45">
@@ -2931,7 +2935,7 @@
       <c r="J46" s="1">
         <v>0.104941645201252</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>2</v>
       </c>
       <c r="L46">
@@ -2978,7 +2982,7 @@
       <c r="J47" s="1">
         <v>0.12994281089901399</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>2</v>
       </c>
       <c r="L47">
@@ -3025,7 +3029,7 @@
       <c r="J48" s="1">
         <v>0.12994281089901399</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>2</v>
       </c>
       <c r="L48">
@@ -3072,7 +3076,7 @@
       <c r="J49" s="1">
         <v>0.12994281089901399</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>1</v>
       </c>
       <c r="L49">
@@ -3119,8 +3123,8 @@
       <c r="J50" s="1">
         <v>3.7456737567316198E-2</v>
       </c>
-      <c r="K50">
-        <v>1</v>
+      <c r="K50" s="3">
+        <v>0</v>
       </c>
       <c r="L50">
         <v>3204.1550000000002</v>
@@ -3166,7 +3170,7 @@
       <c r="J51" s="1">
         <v>3.7456737567316198E-2</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>1</v>
       </c>
       <c r="L51">
@@ -3213,7 +3217,7 @@
       <c r="J52" s="1">
         <v>3.7456737567316198E-2</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>1</v>
       </c>
       <c r="L52">
@@ -3260,7 +3264,7 @@
       <c r="J53" s="1">
         <v>7.9997674187699402E-2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53">
@@ -3307,7 +3311,7 @@
       <c r="J54" s="1">
         <v>7.9997674187699402E-2</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54">
@@ -3354,8 +3358,8 @@
       <c r="J55" s="1">
         <v>7.9997674187699402E-2</v>
       </c>
-      <c r="K55">
-        <v>1</v>
+      <c r="K55" s="3">
+        <v>0</v>
       </c>
       <c r="L55">
         <v>2563.0700000000002</v>
@@ -3401,8 +3405,8 @@
       <c r="J56" s="1">
         <v>0.12036110199335499</v>
       </c>
-      <c r="K56">
-        <v>1</v>
+      <c r="K56" s="3">
+        <v>2</v>
       </c>
       <c r="L56">
         <v>2868.846</v>
@@ -3448,8 +3452,8 @@
       <c r="J57" s="1">
         <v>0.12036110199335499</v>
       </c>
-      <c r="K57">
-        <v>2</v>
+      <c r="K57" s="3">
+        <v>1</v>
       </c>
       <c r="L57">
         <v>2903.1880000000001</v>
@@ -3495,8 +3499,8 @@
       <c r="J58" s="1">
         <v>0.12036110199335499</v>
       </c>
-      <c r="K58">
-        <v>2</v>
+      <c r="K58" s="3">
+        <v>1</v>
       </c>
       <c r="L58">
         <v>2935.5740000000001</v>
@@ -3542,7 +3546,7 @@
       <c r="J59" s="1">
         <v>0.14975571134850801</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>1</v>
       </c>
       <c r="L59">
@@ -3589,7 +3593,7 @@
       <c r="J60" s="1">
         <v>0.14975571134850801</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>1</v>
       </c>
       <c r="L60">
@@ -3636,7 +3640,7 @@
       <c r="J61" s="1">
         <v>0.14975571134850801</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>1</v>
       </c>
       <c r="L61">
@@ -3683,7 +3687,7 @@
       <c r="J62" s="1">
         <v>3.9950202463532099E-2</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>1</v>
       </c>
       <c r="L62">
@@ -3730,7 +3734,7 @@
       <c r="J63" s="1">
         <v>3.9950202463532099E-2</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>1</v>
       </c>
       <c r="L63">
@@ -3777,7 +3781,7 @@
       <c r="J64" s="1">
         <v>3.9950202463532099E-2</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>1</v>
       </c>
       <c r="L64">
@@ -3824,7 +3828,7 @@
       <c r="J65" s="1">
         <v>8.3432424373892602E-2</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>1</v>
       </c>
       <c r="L65">
@@ -3871,8 +3875,8 @@
       <c r="J66" s="1">
         <v>8.3432424373892602E-2</v>
       </c>
-      <c r="K66">
-        <v>1</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66">
         <v>3001.556</v>
@@ -3918,7 +3922,7 @@
       <c r="J67" s="1">
         <v>8.3432424373892602E-2</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>1</v>
       </c>
       <c r="L67">
@@ -3965,7 +3969,7 @@
       <c r="J68" s="1">
         <v>0.119522100758016</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>1</v>
       </c>
       <c r="L68">
@@ -4012,7 +4016,7 @@
       <c r="J69" s="1">
         <v>0.119522100758016</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>0</v>
       </c>
       <c r="L69">
@@ -4059,7 +4063,7 @@
       <c r="J70" s="1">
         <v>0.119522100758016</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70">
@@ -4106,8 +4110,8 @@
       <c r="J71" s="1">
         <v>0.14828849409664299</v>
       </c>
-      <c r="K71">
-        <v>0</v>
+      <c r="K71" s="3">
+        <v>1</v>
       </c>
       <c r="L71">
         <v>2695.3069999999998</v>
@@ -4153,7 +4157,7 @@
       <c r="J72" s="1">
         <v>0.14828849409664299</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <v>0</v>
       </c>
       <c r="L72">
@@ -4200,7 +4204,7 @@
       <c r="J73" s="1">
         <v>0.14828849409664299</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>1</v>
       </c>
       <c r="L73">
@@ -4247,7 +4251,7 @@
       <c r="J74" s="1">
         <v>3.17039324474086E-2</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>1</v>
       </c>
       <c r="L74">
@@ -4294,7 +4298,7 @@
       <c r="J75" s="1">
         <v>3.17039324474086E-2</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>1</v>
       </c>
       <c r="L75">
@@ -4341,7 +4345,7 @@
       <c r="J76" s="1">
         <v>3.17039324474086E-2</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>1</v>
       </c>
       <c r="L76">
@@ -4388,7 +4392,7 @@
       <c r="J77" s="1">
         <v>6.9597906314295604E-2</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <v>1</v>
       </c>
       <c r="L77">
@@ -4435,7 +4439,7 @@
       <c r="J78" s="1">
         <v>6.9597906314295604E-2</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>1</v>
       </c>
       <c r="L78">
@@ -4482,7 +4486,7 @@
       <c r="J79" s="1">
         <v>6.9597906314295604E-2</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>0</v>
       </c>
       <c r="L79">
@@ -4529,7 +4533,7 @@
       <c r="J80" s="1">
         <v>0.102999642469951</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80">
@@ -4576,7 +4580,7 @@
       <c r="J81" s="1">
         <v>0.102999642469951</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>1</v>
       </c>
       <c r="L81">
@@ -4623,7 +4627,7 @@
       <c r="J82" s="1">
         <v>0.102999642469951</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>1</v>
       </c>
       <c r="L82">
@@ -4670,7 +4674,7 @@
       <c r="J83" s="1">
         <v>0.133249228749341</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <v>1</v>
       </c>
       <c r="L83">
@@ -4717,8 +4721,8 @@
       <c r="J84" s="1">
         <v>0.133249228749341</v>
       </c>
-      <c r="K84">
-        <v>2</v>
+      <c r="K84" s="3">
+        <v>1</v>
       </c>
       <c r="L84">
         <v>2139.6610000000001</v>
@@ -4764,7 +4768,7 @@
       <c r="J85" s="1">
         <v>0.133249228749341</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <v>2</v>
       </c>
       <c r="L85">
@@ -4811,7 +4815,7 @@
       <c r="J86" s="1">
         <v>3.2270366390777398E-2</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <v>2</v>
       </c>
       <c r="L86">
@@ -4858,7 +4862,7 @@
       <c r="J87" s="1">
         <v>3.2270366390777398E-2</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>1</v>
       </c>
       <c r="L87">
@@ -4905,7 +4909,7 @@
       <c r="J88" s="1">
         <v>3.2270366390777398E-2</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <v>0</v>
       </c>
       <c r="L88">
@@ -4952,7 +4956,7 @@
       <c r="J89" s="1">
         <v>6.8228992904033406E-2</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>1</v>
       </c>
       <c r="L89">
@@ -4999,8 +5003,8 @@
       <c r="J90" s="1">
         <v>6.8228992904033406E-2</v>
       </c>
-      <c r="K90">
-        <v>0</v>
+      <c r="K90" s="3">
+        <v>1</v>
       </c>
       <c r="L90">
         <v>2606.4259999999999</v>
@@ -5046,7 +5050,7 @@
       <c r="J91" s="1">
         <v>6.8228992904033406E-2</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91">
@@ -5093,7 +5097,7 @@
       <c r="J92" s="1">
         <v>0.10479258234691601</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>1</v>
       </c>
       <c r="L92">
@@ -5140,7 +5144,7 @@
       <c r="J93" s="1">
         <v>0.10479258234691601</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>2</v>
       </c>
       <c r="L93">
@@ -5187,7 +5191,7 @@
       <c r="J94" s="1">
         <v>0.10479258234691601</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>1</v>
       </c>
       <c r="L94">
@@ -5234,7 +5238,7 @@
       <c r="J95" s="1">
         <v>0.13559732104644701</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>1</v>
       </c>
       <c r="L95">
@@ -5281,7 +5285,7 @@
       <c r="J96" s="1">
         <v>0.13559732104644701</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>1</v>
       </c>
       <c r="L96">
@@ -5328,7 +5332,7 @@
       <c r="J97" s="1">
         <v>0.13559732104644701</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>1</v>
       </c>
       <c r="L97">
@@ -5375,7 +5379,7 @@
       <c r="J98" s="1">
         <v>3.1440858044424397E-2</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>1</v>
       </c>
       <c r="L98">
@@ -5422,7 +5426,7 @@
       <c r="J99" s="1">
         <v>3.1440858044424397E-2</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>1</v>
       </c>
       <c r="L99">
@@ -5469,7 +5473,7 @@
       <c r="J100" s="1">
         <v>3.1440858044424397E-2</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>1</v>
       </c>
       <c r="L100">
@@ -5516,7 +5520,7 @@
       <c r="J101" s="1">
         <v>6.7538694283315104E-2</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>1</v>
       </c>
       <c r="L101">
@@ -5563,7 +5567,7 @@
       <c r="J102" s="1">
         <v>6.7538694283315104E-2</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>1</v>
       </c>
       <c r="L102">
@@ -5610,7 +5614,7 @@
       <c r="J103" s="1">
         <v>6.7538694283315104E-2</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>1</v>
       </c>
       <c r="L103">
@@ -5657,7 +5661,7 @@
       <c r="J104" s="1">
         <v>0.102262026075645</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>1</v>
       </c>
       <c r="L104">
@@ -5704,8 +5708,8 @@
       <c r="J105" s="1">
         <v>0.102262026075645</v>
       </c>
-      <c r="K105">
-        <v>2</v>
+      <c r="K105" s="3">
+        <v>1</v>
       </c>
       <c r="L105">
         <v>2338.2869999999998</v>
@@ -5751,7 +5755,7 @@
       <c r="J106" s="1">
         <v>0.102262026075645</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>1</v>
       </c>
       <c r="L106">
@@ -5798,7 +5802,7 @@
       <c r="J107" s="1">
         <v>0.12627706236422601</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <v>2</v>
       </c>
       <c r="L107">
@@ -5845,7 +5849,7 @@
       <c r="J108" s="1">
         <v>0.12627706236422601</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <v>2</v>
       </c>
       <c r="L108">
@@ -5892,7 +5896,7 @@
       <c r="J109" s="1">
         <v>0.12627706236422601</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <v>2</v>
       </c>
       <c r="L109">
@@ -5939,8 +5943,8 @@
       <c r="J110" s="1">
         <v>2.8244585605394799E-2</v>
       </c>
-      <c r="K110">
-        <v>2</v>
+      <c r="K110" s="3">
+        <v>1</v>
       </c>
       <c r="L110">
         <v>3434.39</v>
@@ -5986,7 +5990,7 @@
       <c r="J111" s="1">
         <v>2.8244585605394799E-2</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <v>2</v>
       </c>
       <c r="L111">
@@ -6033,7 +6037,7 @@
       <c r="J112" s="1">
         <v>2.8244585605394799E-2</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <v>2</v>
       </c>
       <c r="L112">
@@ -6080,7 +6084,7 @@
       <c r="J113" s="1">
         <v>6.4485309771308896E-2</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <v>2</v>
       </c>
       <c r="L113">
@@ -6127,8 +6131,8 @@
       <c r="J114" s="1">
         <v>6.4485309771308896E-2</v>
       </c>
-      <c r="K114">
-        <v>0</v>
+      <c r="K114" s="3">
+        <v>1</v>
       </c>
       <c r="L114">
         <v>4840.8289999999997</v>
@@ -6174,7 +6178,7 @@
       <c r="J115" s="1">
         <v>6.4485309771308896E-2</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <v>0</v>
       </c>
       <c r="L115">
@@ -6221,7 +6225,7 @@
       <c r="J116" s="1">
         <v>8.79986861643825E-2</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <v>0</v>
       </c>
       <c r="L116">
@@ -6268,7 +6272,7 @@
       <c r="J117" s="1">
         <v>8.79986861643825E-2</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <v>0</v>
       </c>
       <c r="L117">
@@ -6315,8 +6319,8 @@
       <c r="J118" s="1">
         <v>8.79986861643825E-2</v>
       </c>
-      <c r="K118">
-        <v>2</v>
+      <c r="K118" s="3">
+        <v>1</v>
       </c>
       <c r="L118">
         <v>3202.9475000000002</v>
@@ -6362,8 +6366,8 @@
       <c r="J119" s="1">
         <v>0.106218441841379</v>
       </c>
-      <c r="K119">
-        <v>1</v>
+      <c r="K119" s="3">
+        <v>2</v>
       </c>
       <c r="L119">
         <v>3534.0787999999998</v>
@@ -6409,8 +6413,8 @@
       <c r="J120" s="1">
         <v>0.106218441841379</v>
       </c>
-      <c r="K120">
-        <v>2</v>
+      <c r="K120" s="3">
+        <v>1</v>
       </c>
       <c r="L120">
         <v>3566.4122000000002</v>
@@ -6456,8 +6460,8 @@
       <c r="J121" s="1">
         <v>0.106218441841379</v>
       </c>
-      <c r="K121">
-        <v>0</v>
+      <c r="K121" s="3">
+        <v>1</v>
       </c>
       <c r="L121">
         <v>3731.0047</v>
@@ -6503,7 +6507,7 @@
       <c r="J122" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
         <v>0</v>
       </c>
       <c r="L122">
@@ -6550,8 +6554,8 @@
       <c r="J123" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K123">
-        <v>2</v>
+      <c r="K123" s="3">
+        <v>1</v>
       </c>
       <c r="L123">
         <v>2877.4666000000002</v>
@@ -6597,8 +6601,8 @@
       <c r="J124" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K124">
-        <v>1</v>
+      <c r="K124" s="3">
+        <v>2</v>
       </c>
       <c r="L124">
         <v>3218.0879</v>
@@ -6644,7 +6648,7 @@
       <c r="J125" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
         <v>1</v>
       </c>
       <c r="L125">
@@ -6691,7 +6695,7 @@
       <c r="J126" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="3">
         <v>1</v>
       </c>
       <c r="L126">
@@ -6738,7 +6742,7 @@
       <c r="J127" s="1">
         <v>2.79159494933452E-2</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
         <v>1</v>
       </c>
       <c r="L127">
